--- a/invoice_44848471.xlsx
+++ b/invoice_44848471.xlsx
@@ -624,7 +624,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PUMA RS DREAMER SUPER</t>
+          <t>I PUMA RS DREAMER SUPER</t>
         </is>
       </c>
       <c r="C3" t="n">
